--- a/gantt-chart.xlsx
+++ b/gantt-chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alpha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alpha\Documents\GitHub\CS320-20_21-Fall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEB54A0-E4F1-4F82-8C18-5C6676A99E90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226772B3-2BBC-4B0B-BC81-D6EFD39F2B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2903,24 +2903,6 @@
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2928,9 +2910,27 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2982,51 +2982,7 @@
     <cellStyle name="Vurgu6" xfId="24" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Yüzde" xfId="40" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <border>
         <left style="thin">
@@ -3151,7 +3107,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="100" min="1" page="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="100" min="1" page="0" val="6"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3811,7 +3767,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BO4" sqref="BO4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3839,29 +3795,29 @@
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
       <c r="I1" s="130"/>
-      <c r="K1" s="168" t="s">
+      <c r="K1" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="168"/>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="168"/>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="162"/>
+      <c r="V1" s="162"/>
+      <c r="W1" s="162"/>
+      <c r="X1" s="162"/>
+      <c r="Y1" s="162"/>
+      <c r="Z1" s="162"/>
+      <c r="AA1" s="162"/>
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="162"/>
+      <c r="AD1" s="162"/>
+      <c r="AE1" s="162"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
@@ -3906,146 +3862,146 @@
       <c r="B4" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="170">
+      <c r="C4" s="167">
         <v>44122</v>
       </c>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
       <c r="F4" s="110"/>
       <c r="G4" s="113" t="s">
         <v>77</v>
       </c>
       <c r="H4" s="127">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I4" s="111"/>
       <c r="J4" s="49"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
-      <c r="O4" s="163"/>
-      <c r="P4" s="163"/>
-      <c r="Q4" s="164"/>
-      <c r="R4" s="162"/>
-      <c r="S4" s="163"/>
-      <c r="T4" s="163"/>
-      <c r="U4" s="163"/>
-      <c r="V4" s="163"/>
-      <c r="W4" s="163"/>
-      <c r="X4" s="164"/>
-      <c r="Y4" s="162"/>
-      <c r="Z4" s="163"/>
-      <c r="AA4" s="163"/>
-      <c r="AB4" s="163"/>
-      <c r="AC4" s="163"/>
-      <c r="AD4" s="163"/>
-      <c r="AE4" s="164"/>
-      <c r="AF4" s="162"/>
-      <c r="AG4" s="163"/>
-      <c r="AH4" s="163"/>
-      <c r="AI4" s="163"/>
-      <c r="AJ4" s="163"/>
-      <c r="AK4" s="163"/>
-      <c r="AL4" s="164"/>
-      <c r="AM4" s="162"/>
-      <c r="AN4" s="163"/>
-      <c r="AO4" s="163"/>
-      <c r="AP4" s="163"/>
-      <c r="AQ4" s="163"/>
-      <c r="AR4" s="163"/>
-      <c r="AS4" s="164"/>
-      <c r="AT4" s="162"/>
-      <c r="AU4" s="163"/>
-      <c r="AV4" s="163"/>
-      <c r="AW4" s="163"/>
-      <c r="AX4" s="163"/>
-      <c r="AY4" s="163"/>
-      <c r="AZ4" s="164"/>
-      <c r="BA4" s="162"/>
-      <c r="BB4" s="163"/>
-      <c r="BC4" s="163"/>
-      <c r="BD4" s="163"/>
-      <c r="BE4" s="163"/>
-      <c r="BF4" s="163"/>
-      <c r="BG4" s="164"/>
-      <c r="BH4" s="162"/>
-      <c r="BI4" s="163"/>
-      <c r="BJ4" s="163"/>
-      <c r="BK4" s="163"/>
-      <c r="BL4" s="163"/>
-      <c r="BM4" s="163"/>
-      <c r="BN4" s="164"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="165"/>
+      <c r="O4" s="165"/>
+      <c r="P4" s="165"/>
+      <c r="Q4" s="166"/>
+      <c r="R4" s="164"/>
+      <c r="S4" s="165"/>
+      <c r="T4" s="165"/>
+      <c r="U4" s="165"/>
+      <c r="V4" s="165"/>
+      <c r="W4" s="165"/>
+      <c r="X4" s="166"/>
+      <c r="Y4" s="164"/>
+      <c r="Z4" s="165"/>
+      <c r="AA4" s="165"/>
+      <c r="AB4" s="165"/>
+      <c r="AC4" s="165"/>
+      <c r="AD4" s="165"/>
+      <c r="AE4" s="166"/>
+      <c r="AF4" s="164"/>
+      <c r="AG4" s="165"/>
+      <c r="AH4" s="165"/>
+      <c r="AI4" s="165"/>
+      <c r="AJ4" s="165"/>
+      <c r="AK4" s="165"/>
+      <c r="AL4" s="166"/>
+      <c r="AM4" s="164"/>
+      <c r="AN4" s="165"/>
+      <c r="AO4" s="165"/>
+      <c r="AP4" s="165"/>
+      <c r="AQ4" s="165"/>
+      <c r="AR4" s="165"/>
+      <c r="AS4" s="166"/>
+      <c r="AT4" s="164"/>
+      <c r="AU4" s="165"/>
+      <c r="AV4" s="165"/>
+      <c r="AW4" s="165"/>
+      <c r="AX4" s="165"/>
+      <c r="AY4" s="165"/>
+      <c r="AZ4" s="166"/>
+      <c r="BA4" s="164"/>
+      <c r="BB4" s="165"/>
+      <c r="BC4" s="165"/>
+      <c r="BD4" s="165"/>
+      <c r="BE4" s="165"/>
+      <c r="BF4" s="165"/>
+      <c r="BG4" s="166"/>
+      <c r="BH4" s="164"/>
+      <c r="BI4" s="165"/>
+      <c r="BJ4" s="165"/>
+      <c r="BK4" s="165"/>
+      <c r="BL4" s="165"/>
+      <c r="BM4" s="165"/>
+      <c r="BN4" s="166"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="109"/>
       <c r="B5" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
       <c r="F5" s="112"/>
       <c r="G5" s="112"/>
       <c r="H5" s="112"/>
       <c r="I5" s="112"/>
       <c r="J5" s="49"/>
-      <c r="K5" s="165"/>
-      <c r="L5" s="166"/>
-      <c r="M5" s="166"/>
-      <c r="N5" s="166"/>
-      <c r="O5" s="166"/>
-      <c r="P5" s="166"/>
-      <c r="Q5" s="167"/>
-      <c r="R5" s="165"/>
-      <c r="S5" s="166"/>
-      <c r="T5" s="166"/>
-      <c r="U5" s="166"/>
-      <c r="V5" s="166"/>
-      <c r="W5" s="166"/>
-      <c r="X5" s="167"/>
-      <c r="Y5" s="165"/>
-      <c r="Z5" s="166"/>
-      <c r="AA5" s="166"/>
-      <c r="AB5" s="166"/>
-      <c r="AC5" s="166"/>
-      <c r="AD5" s="166"/>
-      <c r="AE5" s="167"/>
-      <c r="AF5" s="165"/>
-      <c r="AG5" s="166"/>
-      <c r="AH5" s="166"/>
-      <c r="AI5" s="166"/>
-      <c r="AJ5" s="166"/>
-      <c r="AK5" s="166"/>
-      <c r="AL5" s="167"/>
-      <c r="AM5" s="165"/>
-      <c r="AN5" s="166"/>
-      <c r="AO5" s="166"/>
-      <c r="AP5" s="166"/>
-      <c r="AQ5" s="166"/>
-      <c r="AR5" s="166"/>
-      <c r="AS5" s="167"/>
-      <c r="AT5" s="165"/>
-      <c r="AU5" s="166"/>
-      <c r="AV5" s="166"/>
-      <c r="AW5" s="166"/>
-      <c r="AX5" s="166"/>
-      <c r="AY5" s="166"/>
-      <c r="AZ5" s="167"/>
-      <c r="BA5" s="165"/>
-      <c r="BB5" s="166"/>
-      <c r="BC5" s="166"/>
-      <c r="BD5" s="166"/>
-      <c r="BE5" s="166"/>
-      <c r="BF5" s="166"/>
-      <c r="BG5" s="167"/>
-      <c r="BH5" s="165"/>
-      <c r="BI5" s="166"/>
-      <c r="BJ5" s="166"/>
-      <c r="BK5" s="166"/>
-      <c r="BL5" s="166"/>
-      <c r="BM5" s="166"/>
-      <c r="BN5" s="167"/>
+      <c r="K5" s="168"/>
+      <c r="L5" s="169"/>
+      <c r="M5" s="169"/>
+      <c r="N5" s="169"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="169"/>
+      <c r="Q5" s="170"/>
+      <c r="R5" s="168"/>
+      <c r="S5" s="169"/>
+      <c r="T5" s="169"/>
+      <c r="U5" s="169"/>
+      <c r="V5" s="169"/>
+      <c r="W5" s="169"/>
+      <c r="X5" s="170"/>
+      <c r="Y5" s="168"/>
+      <c r="Z5" s="169"/>
+      <c r="AA5" s="169"/>
+      <c r="AB5" s="169"/>
+      <c r="AC5" s="169"/>
+      <c r="AD5" s="169"/>
+      <c r="AE5" s="170"/>
+      <c r="AF5" s="168"/>
+      <c r="AG5" s="169"/>
+      <c r="AH5" s="169"/>
+      <c r="AI5" s="169"/>
+      <c r="AJ5" s="169"/>
+      <c r="AK5" s="169"/>
+      <c r="AL5" s="170"/>
+      <c r="AM5" s="168"/>
+      <c r="AN5" s="169"/>
+      <c r="AO5" s="169"/>
+      <c r="AP5" s="169"/>
+      <c r="AQ5" s="169"/>
+      <c r="AR5" s="169"/>
+      <c r="AS5" s="170"/>
+      <c r="AT5" s="168"/>
+      <c r="AU5" s="169"/>
+      <c r="AV5" s="169"/>
+      <c r="AW5" s="169"/>
+      <c r="AX5" s="169"/>
+      <c r="AY5" s="169"/>
+      <c r="AZ5" s="170"/>
+      <c r="BA5" s="168"/>
+      <c r="BB5" s="169"/>
+      <c r="BC5" s="169"/>
+      <c r="BD5" s="169"/>
+      <c r="BE5" s="169"/>
+      <c r="BF5" s="169"/>
+      <c r="BG5" s="170"/>
+      <c r="BH5" s="168"/>
+      <c r="BI5" s="169"/>
+      <c r="BJ5" s="169"/>
+      <c r="BK5" s="169"/>
+      <c r="BL5" s="169"/>
+      <c r="BM5" s="169"/>
+      <c r="BN5" s="170"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
@@ -4060,227 +4016,227 @@
       <c r="J6" s="49"/>
       <c r="K6" s="91">
         <f>C4-WEEKDAY(C4,1)+2+7*(H4-1)</f>
-        <v>44123</v>
+        <v>44158</v>
       </c>
       <c r="L6" s="82">
         <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
-        <v>44124</v>
+        <v>44159</v>
       </c>
       <c r="M6" s="82">
         <f t="shared" si="0"/>
-        <v>44125</v>
+        <v>44160</v>
       </c>
       <c r="N6" s="82">
         <f t="shared" si="0"/>
-        <v>44126</v>
+        <v>44161</v>
       </c>
       <c r="O6" s="82">
         <f t="shared" si="0"/>
-        <v>44127</v>
+        <v>44162</v>
       </c>
       <c r="P6" s="82">
         <f t="shared" si="0"/>
-        <v>44128</v>
+        <v>44163</v>
       </c>
       <c r="Q6" s="92">
         <f t="shared" si="0"/>
-        <v>44129</v>
+        <v>44164</v>
       </c>
       <c r="R6" s="91">
         <f t="shared" si="0"/>
-        <v>44130</v>
+        <v>44165</v>
       </c>
       <c r="S6" s="82">
         <f t="shared" si="0"/>
-        <v>44131</v>
+        <v>44166</v>
       </c>
       <c r="T6" s="82">
         <f t="shared" si="0"/>
-        <v>44132</v>
+        <v>44167</v>
       </c>
       <c r="U6" s="82">
         <f t="shared" si="0"/>
-        <v>44133</v>
+        <v>44168</v>
       </c>
       <c r="V6" s="82">
         <f t="shared" si="0"/>
-        <v>44134</v>
+        <v>44169</v>
       </c>
       <c r="W6" s="82">
         <f t="shared" si="0"/>
-        <v>44135</v>
+        <v>44170</v>
       </c>
       <c r="X6" s="92">
         <f t="shared" si="0"/>
-        <v>44136</v>
+        <v>44171</v>
       </c>
       <c r="Y6" s="91">
         <f t="shared" si="0"/>
-        <v>44137</v>
+        <v>44172</v>
       </c>
       <c r="Z6" s="82">
         <f t="shared" si="0"/>
-        <v>44138</v>
+        <v>44173</v>
       </c>
       <c r="AA6" s="82">
         <f t="shared" si="0"/>
-        <v>44139</v>
+        <v>44174</v>
       </c>
       <c r="AB6" s="82">
         <f t="shared" si="0"/>
-        <v>44140</v>
+        <v>44175</v>
       </c>
       <c r="AC6" s="82">
         <f t="shared" si="0"/>
-        <v>44141</v>
+        <v>44176</v>
       </c>
       <c r="AD6" s="82">
         <f t="shared" si="0"/>
-        <v>44142</v>
+        <v>44177</v>
       </c>
       <c r="AE6" s="92">
         <f t="shared" si="0"/>
-        <v>44143</v>
+        <v>44178</v>
       </c>
       <c r="AF6" s="91">
         <f t="shared" si="0"/>
-        <v>44144</v>
+        <v>44179</v>
       </c>
       <c r="AG6" s="82">
         <f t="shared" si="0"/>
-        <v>44145</v>
+        <v>44180</v>
       </c>
       <c r="AH6" s="82">
         <f t="shared" si="0"/>
-        <v>44146</v>
+        <v>44181</v>
       </c>
       <c r="AI6" s="82">
         <f t="shared" si="0"/>
-        <v>44147</v>
+        <v>44182</v>
       </c>
       <c r="AJ6" s="82">
         <f t="shared" si="0"/>
-        <v>44148</v>
+        <v>44183</v>
       </c>
       <c r="AK6" s="82">
         <f t="shared" si="0"/>
-        <v>44149</v>
+        <v>44184</v>
       </c>
       <c r="AL6" s="92">
         <f t="shared" si="0"/>
-        <v>44150</v>
+        <v>44185</v>
       </c>
       <c r="AM6" s="91">
         <f t="shared" si="0"/>
-        <v>44151</v>
+        <v>44186</v>
       </c>
       <c r="AN6" s="82">
         <f t="shared" si="0"/>
-        <v>44152</v>
+        <v>44187</v>
       </c>
       <c r="AO6" s="82">
         <f t="shared" si="0"/>
-        <v>44153</v>
+        <v>44188</v>
       </c>
       <c r="AP6" s="82">
         <f t="shared" si="0"/>
-        <v>44154</v>
+        <v>44189</v>
       </c>
       <c r="AQ6" s="82">
         <f t="shared" si="0"/>
-        <v>44155</v>
+        <v>44190</v>
       </c>
       <c r="AR6" s="82">
         <f t="shared" ref="AR6:BN6" si="1">AQ6+1</f>
-        <v>44156</v>
+        <v>44191</v>
       </c>
       <c r="AS6" s="92">
         <f t="shared" si="1"/>
-        <v>44157</v>
+        <v>44192</v>
       </c>
       <c r="AT6" s="91">
         <f t="shared" si="1"/>
-        <v>44158</v>
+        <v>44193</v>
       </c>
       <c r="AU6" s="82">
         <f t="shared" si="1"/>
-        <v>44159</v>
+        <v>44194</v>
       </c>
       <c r="AV6" s="82">
         <f t="shared" si="1"/>
-        <v>44160</v>
+        <v>44195</v>
       </c>
       <c r="AW6" s="82">
         <f t="shared" si="1"/>
-        <v>44161</v>
+        <v>44196</v>
       </c>
       <c r="AX6" s="82">
         <f t="shared" si="1"/>
-        <v>44162</v>
+        <v>44197</v>
       </c>
       <c r="AY6" s="82">
         <f t="shared" si="1"/>
-        <v>44163</v>
+        <v>44198</v>
       </c>
       <c r="AZ6" s="92">
         <f t="shared" si="1"/>
-        <v>44164</v>
+        <v>44199</v>
       </c>
       <c r="BA6" s="91">
         <f t="shared" si="1"/>
-        <v>44165</v>
+        <v>44200</v>
       </c>
       <c r="BB6" s="82">
         <f t="shared" si="1"/>
-        <v>44166</v>
+        <v>44201</v>
       </c>
       <c r="BC6" s="82">
         <f t="shared" si="1"/>
-        <v>44167</v>
+        <v>44202</v>
       </c>
       <c r="BD6" s="82">
         <f t="shared" si="1"/>
-        <v>44168</v>
+        <v>44203</v>
       </c>
       <c r="BE6" s="82">
         <f t="shared" si="1"/>
-        <v>44169</v>
+        <v>44204</v>
       </c>
       <c r="BF6" s="82">
         <f t="shared" si="1"/>
-        <v>44170</v>
+        <v>44205</v>
       </c>
       <c r="BG6" s="92">
         <f t="shared" si="1"/>
-        <v>44171</v>
+        <v>44206</v>
       </c>
       <c r="BH6" s="91">
         <f t="shared" si="1"/>
-        <v>44172</v>
+        <v>44207</v>
       </c>
       <c r="BI6" s="82">
         <f t="shared" si="1"/>
-        <v>44173</v>
+        <v>44208</v>
       </c>
       <c r="BJ6" s="82">
         <f t="shared" si="1"/>
-        <v>44174</v>
+        <v>44209</v>
       </c>
       <c r="BK6" s="82">
         <f t="shared" si="1"/>
-        <v>44175</v>
+        <v>44210</v>
       </c>
       <c r="BL6" s="82">
         <f t="shared" si="1"/>
-        <v>44176</v>
+        <v>44211</v>
       </c>
       <c r="BM6" s="82">
         <f t="shared" si="1"/>
-        <v>44177</v>
+        <v>44212</v>
       </c>
       <c r="BN6" s="92">
         <f t="shared" si="1"/>
-        <v>44178</v>
+        <v>44213</v>
       </c>
     </row>
     <row r="7" spans="1:66" s="123" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -4441,7 +4397,7 @@
         <v>T</v>
       </c>
       <c r="AQ7" s="121" t="str">
-        <f t="shared" ref="AQ7:CT7" si="3">CHOOSE(WEEKDAY(AQ6,1),"S","M","T","W","T","F","S")</f>
+        <f t="shared" ref="AQ7:BN7" si="3">CHOOSE(WEEKDAY(AQ6,1),"S","M","T","W","T","F","S")</f>
         <v>F</v>
       </c>
       <c r="AR7" s="121" t="str">
@@ -4878,14 +4834,14 @@
       </c>
       <c r="D12" s="126"/>
       <c r="E12" s="99">
-        <v>44150</v>
+        <v>44151</v>
       </c>
       <c r="F12" s="100">
         <f t="shared" si="6"/>
         <v>44157</v>
       </c>
       <c r="G12" s="61">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" s="62">
         <v>0</v>
@@ -7370,15 +7326,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -7389,6 +7336,15 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H41">
@@ -7406,20 +7362,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="7" priority="45">
+    <cfRule type="expression" dxfId="3" priority="45">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:BN41">
-    <cfRule type="expression" dxfId="6" priority="48">
+    <cfRule type="expression" dxfId="2" priority="48">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="49">
+    <cfRule type="expression" dxfId="1" priority="49">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:BN41">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
